--- a/LOGS/0b15b63c-f228-489f-9e22-a84e8d3ce36f/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/0b15b63c-f228-489f-9e22-a84e8d3ce36f/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -63,7 +63,7 @@
     <t>None Related party receivables (Note 20)</t>
   </si>
   <si>
-    <t>None nan</t>
+    <t>None Total</t>
   </si>
   <si>
     <t>None Raw materials</t>
@@ -78,7 +78,7 @@
     <t>Current Electricity derivatives at fair value</t>
   </si>
   <si>
-    <t>Current nan</t>
+    <t>Current Total</t>
   </si>
   <si>
     <t>Non-current Electricity derivatives at fair value</t>
@@ -327,7 +327,7 @@
     <t>Cash flow hedge reserve Balance at 31 December</t>
   </si>
   <si>
-    <t>Cash flow hedge reserve nan</t>
+    <t>Cash flow hedge reserve Total</t>
   </si>
   <si>
     <t>Reserve in joint venture Balance at 1 January</t>
@@ -339,7 +339,7 @@
     <t>Reserve in joint venture Balance at 31 December</t>
   </si>
   <si>
-    <t>Reserve in joint venture nan</t>
+    <t>Reserve in joint venture Total</t>
   </si>
   <si>
     <t>Other reserve Balance at 1 January</t>
@@ -348,7 +348,7 @@
     <t>Other reserve Balance at 31 December</t>
   </si>
   <si>
-    <t>Other reserve nan</t>
+    <t>Other reserve Total</t>
   </si>
   <si>
     <t>Total Balance at 1 January</t>
